--- a/lesson01/作业.xlsx
+++ b/lesson01/作业.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>此文稿由 Numbers 表格导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在单独的工作表中。请注意其中的公式计算可能与 Excel 不同。</t>
   </si>
@@ -28,10 +28,52 @@
     <t>Excel 工作表名称</t>
   </si>
   <si>
+    <t>导出摘要</t>
+  </si>
+  <si>
+    <t>表格 1</t>
+  </si>
+  <si>
     <t>第一天</t>
   </si>
   <si>
-    <t>表格 1</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>第一天</t>
+    </r>
+  </si>
+  <si>
+    <t>第二天</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>第二天</t>
+    </r>
+  </si>
+  <si>
+    <t>第三天</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>第三天</t>
+    </r>
   </si>
   <si>
     <t>学员基本信息</t>
@@ -55,46 +97,136 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>面授</t>
-  </si>
-  <si>
-    <t>zhengyansheng</t>
+    <t>chenfan</t>
   </si>
   <si>
     <t>A+</t>
   </si>
   <si>
-    <t>超预期完成作业，很赞。</t>
-  </si>
-  <si>
     <t>具有特点和超期待的作业</t>
   </si>
   <si>
+    <t>chenfei</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
     <t>实现功能</t>
   </si>
   <si>
+    <t>chenyahui</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
     <t>作业需求功能不全等</t>
   </si>
   <si>
+    <t>denghonglin</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
     <t>未提交代码</t>
   </si>
   <si>
-    <t>网授</t>
-  </si>
-  <si>
-    <t>第二天</t>
-  </si>
-  <si>
-    <t>第三天</t>
+    <t>dinghe</t>
+  </si>
+  <si>
+    <t>gaojiawei</t>
+  </si>
+  <si>
+    <t>guozhongkai</t>
+  </si>
+  <si>
+    <t>jiangyusheng</t>
+  </si>
+  <si>
+    <t>lidaijin</t>
+  </si>
+  <si>
+    <t>likangwen</t>
+  </si>
+  <si>
+    <t>liqi</t>
+  </si>
+  <si>
+    <t>liukai</t>
+  </si>
+  <si>
+    <t>liuming</t>
+  </si>
+  <si>
+    <t>liushifan</t>
+  </si>
+  <si>
+    <t>liuxiaoming</t>
+  </si>
+  <si>
+    <t>liuyi</t>
+  </si>
+  <si>
+    <t>lixuebin</t>
+  </si>
+  <si>
+    <t>liyongli</t>
+  </si>
+  <si>
+    <t>louxiaohui</t>
+  </si>
+  <si>
+    <t>luojunquan</t>
+  </si>
+  <si>
+    <t>niushaoshuai</t>
+  </si>
+  <si>
+    <t>qiangshihong</t>
+  </si>
+  <si>
+    <t>shiyongkang</t>
+  </si>
+  <si>
+    <t>sunyankui</t>
+  </si>
+  <si>
+    <t>sunzhaohui</t>
+  </si>
+  <si>
+    <t>wangxiaoyun</t>
+  </si>
+  <si>
+    <t>wenzhiwei</t>
+  </si>
+  <si>
+    <t>wuhuamin</t>
+  </si>
+  <si>
+    <t>wuxinglai</t>
+  </si>
+  <si>
+    <t>xiaochong</t>
+  </si>
+  <si>
+    <t>xuegangqiang</t>
+  </si>
+  <si>
+    <t>yaoxueliang</t>
+  </si>
+  <si>
+    <t>yixiang</t>
+  </si>
+  <si>
+    <t>yuanyuan</t>
+  </si>
+  <si>
+    <t>zhanghao</t>
+  </si>
+  <si>
+    <t>zhaochangqing</t>
   </si>
 </sst>
 </file>
@@ -138,7 +270,7 @@
       <name val="宋体"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,7 +291,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -193,8 +325,20 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -204,103 +348,38 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </left>
       <right/>
       <top/>
@@ -317,7 +396,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top/>
       <bottom/>
@@ -325,28 +404,68 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -356,7 +475,87 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -366,10 +565,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -379,37 +578,50 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -427,13 +639,13 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,73 +654,88 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,7 +745,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -540,124 +767,181 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="7" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -683,10 +967,12 @@
       <rgbColor rgb="015e88b1"/>
       <rgbColor rgb="01eef3f4"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ff5e88b1"/>
+      <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff92cddc"/>
-      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff00b0f0"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff00b050"/>
       <rgbColor rgb="ffffc000"/>
       <rgbColor rgb="ffff5050"/>
@@ -840,9 +1126,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -922,7 +1208,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -950,10 +1236,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1209,9 +1495,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1499,7 +1785,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1527,10 +1813,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1781,275 +2067,697 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="1" max="1" width="2" style="6" customWidth="1"/>
     <col min="2" max="4" width="30.5547" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" customWidth="1"/>
+    <col min="6" max="256" width="10" style="6" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
     <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
+      <c r="A3" s="10"/>
+      <c r="B3" t="s" s="13">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="14">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" t="s" s="14">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" t="s" s="14">
         <v>3</v>
       </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9">
-      <c r="B9" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="10"/>
+      <c r="B9" t="s" s="15">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="17"/>
+      <c r="C10" t="s" s="18">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="D10" t="s" s="19">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" ht="13" customHeight="1">
+      <c r="A11" s="10"/>
       <c r="B11" t="s" s="3">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" ht="13" customHeight="1">
+      <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>6</v>
+      </c>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" ht="13" customHeight="1">
+      <c r="A13" s="10"/>
       <c r="B13" t="s" s="3">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14">
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" ht="13" customHeight="1">
+      <c r="A14" s="20"/>
       <c r="B14" s="4"/>
       <c r="C14" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15">
+      <c r="B15" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s" s="5">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'第一天'!R1C1" tooltip="" display="第一天"/>
-    <hyperlink ref="D12" location="'第二天'!R1C1" tooltip="" display="第二天"/>
-    <hyperlink ref="D14" location="'第三天'!R1C1" tooltip="" display="第三天"/>
+    <hyperlink ref="D10" location="'导出摘要'!R1C1" tooltip="" display="导出摘要"/>
+    <hyperlink ref="D12" location="'第一天'!R1C1" tooltip="" display="第一天"/>
+    <hyperlink ref="D14" location="'第二天'!R1C1" tooltip="" display="第二天"/>
+    <hyperlink ref="D16" location="'第三天'!R1C1" tooltip="" display="第三天"/>
   </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.6719" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.67188" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.4609" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.3828" style="6" customWidth="1"/>
-    <col min="5" max="5" width="57.3516" style="6" customWidth="1"/>
-    <col min="6" max="6" width="7" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.8516" style="6" customWidth="1"/>
-    <col min="9" max="256" width="9" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.6719" style="25" customWidth="1"/>
+    <col min="2" max="2" width="8.67188" style="25" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="25" customWidth="1"/>
+    <col min="4" max="4" width="14.3516" style="25" customWidth="1"/>
+    <col min="5" max="5" width="57.3516" style="25" customWidth="1"/>
+    <col min="6" max="6" width="7" style="25" customWidth="1"/>
+    <col min="7" max="7" width="9" style="25" customWidth="1"/>
+    <col min="8" max="8" width="12.8516" style="25" customWidth="1"/>
+    <col min="9" max="256" width="9" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="A1" t="s" s="26">
+        <v>12</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" t="s" s="29">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s" s="30">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s" s="31">
+        <v>15</v>
+      </c>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="15">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s" s="15">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s" s="15">
-        <v>12</v>
-      </c>
-      <c r="D2" s="16">
+      <c r="A2" t="s" s="34">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s" s="34">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s" s="34">
+        <v>18</v>
+      </c>
+      <c r="D2" s="35">
         <v>43597</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" ht="19" customHeight="1">
-      <c r="A3" t="s" s="21">
-        <v>13</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" t="s" s="23">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s" s="24">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s" s="25">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s" s="24">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s" s="26">
-        <v>17</v>
-      </c>
-      <c r="H3" s="27"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" t="s" s="42">
+        <v>19</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" t="s" s="45">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s" s="46">
+        <v>21</v>
+      </c>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="22"/>
-      <c r="C4" t="s" s="23">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s" s="29">
-        <v>18</v>
-      </c>
-      <c r="E4" s="30"/>
-      <c r="F4" t="s" s="29">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s" s="31">
-        <v>19</v>
-      </c>
-      <c r="H4" s="32"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="41"/>
+      <c r="C4" t="s" s="42">
+        <v>22</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="49"/>
+      <c r="F4" t="s" s="50">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s" s="51">
+        <v>24</v>
+      </c>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="22"/>
-      <c r="C5" t="s" s="23">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s" s="33">
-        <v>20</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" t="s" s="33">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s" s="34">
-        <v>21</v>
-      </c>
-      <c r="H5" s="35"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="41"/>
+      <c r="C5" t="s" s="42">
+        <v>25</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="49"/>
+      <c r="F5" t="s" s="53">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s" s="54">
+        <v>27</v>
+      </c>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="22"/>
-      <c r="C6" t="s" s="23">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s" s="36">
-        <v>22</v>
-      </c>
-      <c r="E6" s="30"/>
-      <c r="F6" t="s" s="37">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s" s="34">
-        <v>23</v>
-      </c>
-      <c r="H6" s="35"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="41"/>
+      <c r="C6" t="s" s="42">
+        <v>28</v>
+      </c>
+      <c r="D6" s="56"/>
+      <c r="E6" s="49"/>
+      <c r="F6" t="s" s="57">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s" s="54">
+        <v>30</v>
+      </c>
+      <c r="H6" s="55"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="38"/>
-      <c r="B7" s="22"/>
-      <c r="C7" t="s" s="23">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s" s="24">
-        <v>15</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="41"/>
+      <c r="C7" t="s" s="42">
+        <v>31</v>
+      </c>
+      <c r="D7" s="59"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="41">
-        <v>24</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" t="s" s="23">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s" s="33">
-        <v>20</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="41"/>
+      <c r="C8" t="s" s="42">
+        <v>32</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="44"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="41"/>
+      <c r="C9" t="s" s="42">
+        <v>33</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="42"/>
+      <c r="B10" s="41"/>
+      <c r="C10" t="s" s="42">
+        <v>34</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+    </row>
+    <row r="11" ht="16" customHeight="1">
+      <c r="A11" s="42"/>
+      <c r="B11" s="41"/>
+      <c r="C11" t="s" s="42">
+        <v>35</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+    </row>
+    <row r="12" ht="16" customHeight="1">
+      <c r="A12" s="42"/>
+      <c r="B12" s="41"/>
+      <c r="C12" t="s" s="42">
+        <v>36</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+    </row>
+    <row r="13" ht="16" customHeight="1">
+      <c r="A13" s="42"/>
+      <c r="B13" s="41"/>
+      <c r="C13" t="s" s="42">
+        <v>37</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+    </row>
+    <row r="14" ht="16" customHeight="1">
+      <c r="A14" s="42"/>
+      <c r="B14" s="41"/>
+      <c r="C14" t="s" s="42">
+        <v>38</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+    </row>
+    <row r="15" ht="16" customHeight="1">
+      <c r="A15" s="42"/>
+      <c r="B15" s="41"/>
+      <c r="C15" t="s" s="42">
+        <v>39</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+    </row>
+    <row r="16" ht="16" customHeight="1">
+      <c r="A16" s="42"/>
+      <c r="B16" s="41"/>
+      <c r="C16" t="s" s="42">
+        <v>40</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+    </row>
+    <row r="17" ht="16" customHeight="1">
+      <c r="A17" s="42"/>
+      <c r="B17" s="41"/>
+      <c r="C17" t="s" s="42">
+        <v>41</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+    </row>
+    <row r="18" ht="16" customHeight="1">
+      <c r="A18" s="42"/>
+      <c r="B18" s="41"/>
+      <c r="C18" t="s" s="42">
+        <v>42</v>
+      </c>
+      <c r="D18" s="43"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+    </row>
+    <row r="19" ht="16" customHeight="1">
+      <c r="A19" s="42"/>
+      <c r="B19" s="41"/>
+      <c r="C19" t="s" s="42">
+        <v>43</v>
+      </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+    </row>
+    <row r="20" ht="16" customHeight="1">
+      <c r="A20" s="42"/>
+      <c r="B20" s="41"/>
+      <c r="C20" t="s" s="42">
+        <v>44</v>
+      </c>
+      <c r="D20" s="43"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+    </row>
+    <row r="21" ht="16" customHeight="1">
+      <c r="A21" s="42"/>
+      <c r="B21" s="41"/>
+      <c r="C21" t="s" s="42">
+        <v>45</v>
+      </c>
+      <c r="D21" s="43"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+    </row>
+    <row r="22" ht="16" customHeight="1">
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" t="s" s="42">
+        <v>46</v>
+      </c>
+      <c r="D22" s="56"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+    </row>
+    <row r="23" ht="16" customHeight="1">
+      <c r="A23" s="62"/>
+      <c r="B23" s="41"/>
+      <c r="C23" t="s" s="42">
+        <v>47</v>
+      </c>
+      <c r="D23" s="59"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+    </row>
+    <row r="24" ht="16" customHeight="1">
+      <c r="A24" s="42"/>
+      <c r="B24" s="41"/>
+      <c r="C24" t="s" s="42">
+        <v>48</v>
+      </c>
+      <c r="D24" s="43"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+    </row>
+    <row r="25" ht="16" customHeight="1">
+      <c r="A25" s="42"/>
+      <c r="B25" s="41"/>
+      <c r="C25" t="s" s="42">
+        <v>49</v>
+      </c>
+      <c r="D25" s="43"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+    </row>
+    <row r="26" ht="16" customHeight="1">
+      <c r="A26" s="42"/>
+      <c r="B26" s="41"/>
+      <c r="C26" t="s" s="42">
+        <v>50</v>
+      </c>
+      <c r="D26" s="43"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+    </row>
+    <row r="27" ht="16" customHeight="1">
+      <c r="A27" s="42"/>
+      <c r="B27" s="41"/>
+      <c r="C27" t="s" s="42">
+        <v>51</v>
+      </c>
+      <c r="D27" s="43"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+    </row>
+    <row r="28" ht="16" customHeight="1">
+      <c r="A28" s="42"/>
+      <c r="B28" s="41"/>
+      <c r="C28" t="s" s="42">
+        <v>52</v>
+      </c>
+      <c r="D28" s="43"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+    </row>
+    <row r="29" ht="16" customHeight="1">
+      <c r="A29" s="42"/>
+      <c r="B29" s="41"/>
+      <c r="C29" t="s" s="42">
+        <v>53</v>
+      </c>
+      <c r="D29" s="43"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+    </row>
+    <row r="30" ht="16" customHeight="1">
+      <c r="A30" s="42"/>
+      <c r="B30" s="41"/>
+      <c r="C30" t="s" s="42">
+        <v>54</v>
+      </c>
+      <c r="D30" s="43"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+    </row>
+    <row r="31" ht="16" customHeight="1">
+      <c r="A31" s="42"/>
+      <c r="B31" s="41"/>
+      <c r="C31" t="s" s="42">
+        <v>55</v>
+      </c>
+      <c r="D31" s="43"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+    </row>
+    <row r="32" ht="16" customHeight="1">
+      <c r="A32" s="42"/>
+      <c r="B32" s="41"/>
+      <c r="C32" t="s" s="42">
+        <v>56</v>
+      </c>
+      <c r="D32" s="43"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+    </row>
+    <row r="33" ht="16" customHeight="1">
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" t="s" s="42">
+        <v>57</v>
+      </c>
+      <c r="D33" s="56"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+    </row>
+    <row r="34" ht="16" customHeight="1">
+      <c r="A34" s="62"/>
+      <c r="B34" s="41"/>
+      <c r="C34" t="s" s="42">
+        <v>58</v>
+      </c>
+      <c r="D34" s="59"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+    </row>
+    <row r="35" ht="16" customHeight="1">
+      <c r="A35" s="42"/>
+      <c r="B35" s="41"/>
+      <c r="C35" t="s" s="42">
+        <v>59</v>
+      </c>
+      <c r="D35" s="43"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+    </row>
+    <row r="36" ht="16" customHeight="1">
+      <c r="A36" s="42"/>
+      <c r="B36" s="41"/>
+      <c r="C36" t="s" s="42">
+        <v>60</v>
+      </c>
+      <c r="D36" s="43"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+    </row>
+    <row r="37" ht="16" customHeight="1">
+      <c r="A37" s="42"/>
+      <c r="B37" s="41"/>
+      <c r="C37" t="s" s="42">
+        <v>61</v>
+      </c>
+      <c r="D37" s="43"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+    </row>
+    <row r="38" ht="16" customHeight="1">
+      <c r="A38" s="40"/>
+      <c r="B38" s="41"/>
+      <c r="C38" t="s" s="42">
+        <v>62</v>
+      </c>
+      <c r="D38" s="56"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="F1:H2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="A3:A7"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F1:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -2067,79 +2775,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="9" style="46" customWidth="1"/>
-    <col min="6" max="256" width="9" style="46" customWidth="1"/>
+    <col min="1" max="5" width="9" style="64" customWidth="1"/>
+    <col min="6" max="256" width="9" style="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
     </row>
     <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
     </row>
     <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
     </row>
     <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
     </row>
     <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2158,79 +2866,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="9" style="47" customWidth="1"/>
-    <col min="6" max="256" width="9" style="47" customWidth="1"/>
+    <col min="1" max="5" width="9" style="66" customWidth="1"/>
+    <col min="6" max="256" width="9" style="66" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
     </row>
     <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
     </row>
     <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
     </row>
     <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
     </row>
     <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lesson01/作业.xlsx
+++ b/lesson01/作业.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanshuai/Projects/Python/v3/class21/xly1/lesson01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liquanzhou/wd/xly1/lesson01/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="27740" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="第一天" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>学员基本信息</t>
   </si>
@@ -121,16 +121,10 @@
     <t>luojunquan</t>
   </si>
   <si>
-    <t>niushaoshuai</t>
-  </si>
-  <si>
     <t>qiangshihong</t>
   </si>
   <si>
     <t>shiyongkang</t>
-  </si>
-  <si>
-    <t>sunzhaohui</t>
   </si>
   <si>
     <t>wangxiaoyun</t>
@@ -393,6 +387,78 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>wan'cehng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>niushaoshuai</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunzhaohui</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码实现简洁,思路清晰</t>
+    <rPh sb="0" eb="1">
+      <t>dai'm</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian'jie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>si'lu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qing'xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运用两种循环方式实现,所学的也都用到了</t>
+    <rPh sb="0" eb="1">
+      <t>yun'yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liang'zhong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xun'h</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fang'shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi'x</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>suo'yong</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xue'de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>dou</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yong'dao</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>le</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -417,7 +483,7 @@
       <name val="宋体"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,6 +524,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="20"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -689,7 +761,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -711,6 +783,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -720,9 +861,27 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -741,92 +900,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2017,16 +2092,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="109" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="8" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
@@ -2035,600 +2110,608 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="12">
         <v>43597</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="34"/>
+    </row>
+    <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="36"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="34"/>
+    </row>
+    <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="36"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="34"/>
+    </row>
+    <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="36"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="34"/>
+    </row>
+    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="37"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="28"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="28"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="28"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="28"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="28"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="28"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="28"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="33"/>
-    </row>
-    <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="29" t="s">
+      <c r="E17" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="28"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="33"/>
-    </row>
-    <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-    </row>
-    <row r="8" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28" t="s">
+      <c r="E18" s="18"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="28"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="28"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="28"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="28"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="28"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="28"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="28"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-    </row>
-    <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-    </row>
-    <row r="10" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41" t="s">
+      <c r="D25" s="13"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="28"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="28"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="28"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="28"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="28"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="28"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+    </row>
+    <row r="32" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="28"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+    </row>
+    <row r="33" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="28"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="28"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+    </row>
+    <row r="35" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="28"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+    </row>
+    <row r="36" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="28"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+    </row>
+    <row r="37" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="28"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+    </row>
+    <row r="38" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="28"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+    </row>
+    <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+    </row>
+    <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+    </row>
+    <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+    </row>
+    <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+    </row>
+    <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-    </row>
-    <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="44"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-    </row>
-    <row r="12" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="44"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-    </row>
-    <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="44"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-    </row>
-    <row r="14" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="44"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-    </row>
-    <row r="15" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="44"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-    </row>
-    <row r="16" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="44"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-    </row>
-    <row r="17" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="44"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-    </row>
-    <row r="18" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="44"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-    </row>
-    <row r="19" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="44"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-    </row>
-    <row r="20" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="44"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-    </row>
-    <row r="21" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="44"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-    </row>
-    <row r="22" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="44"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-    </row>
-    <row r="23" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="44"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-    </row>
-    <row r="24" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="44"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-    </row>
-    <row r="25" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="44"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-    </row>
-    <row r="26" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="44"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-    </row>
-    <row r="27" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="44"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-    </row>
-    <row r="28" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="44"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-    </row>
-    <row r="29" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="44"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-    </row>
-    <row r="30" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="44"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-    </row>
-    <row r="31" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="44"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-    </row>
-    <row r="32" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="44"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-    </row>
-    <row r="33" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="44"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-    </row>
-    <row r="34" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="44"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-    </row>
-    <row r="35" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="44"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-    </row>
-    <row r="36" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="44"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-    </row>
-    <row r="37" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="44"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-    </row>
-    <row r="38" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="44"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-    </row>
-    <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-    </row>
-    <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-    </row>
-    <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-    </row>
-    <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="38"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-    </row>
-    <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="38"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/lesson01/作业.xlsx
+++ b/lesson01/作业.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liquanzhou/wd/xly1/lesson01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanshuai/Projects/Python/v3/class21/xly1/lesson01/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="200" yWindow="460" windowWidth="27740" windowHeight="17540"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="第一天" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
   <si>
     <t>学员基本信息</t>
   </si>
@@ -459,6 +459,55 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>le</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业功能不完善啊同学，有不明白的及时在群里与同学讨论</t>
+    <rPh sb="0" eb="1">
+      <t>zuo'ye</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'neng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'wan'shan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>a</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tong'xue</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>you</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ming'bai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ji'shi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>qun'li</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>tong'xue</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>tao'lun</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -852,6 +901,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -898,9 +950,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2092,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="109" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="109" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2110,22 +2159,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -2140,13 +2189,13 @@
       <c r="D2" s="12">
         <v>43597</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="13"/>
       <c r="C3" s="14" t="s">
         <v>15</v>
@@ -2160,13 +2209,13 @@
       <c r="F3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="34"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
         <v>41</v>
@@ -2178,13 +2227,13 @@
       <c r="F4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="34"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="36"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
         <v>42</v>
@@ -2196,13 +2245,13 @@
       <c r="F5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="34"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="36"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
         <v>23</v>
@@ -2214,13 +2263,13 @@
       <c r="F6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="34"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="37"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
         <v>26</v>
@@ -2401,7 +2450,9 @@
       <c r="C19" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E19" s="18"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -2413,8 +2464,12 @@
       <c r="C20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="18"/>
+      <c r="D20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>65</v>
+      </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
@@ -2425,7 +2480,9 @@
       <c r="C21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E21" s="18"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -2437,7 +2494,9 @@
       <c r="C22" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="13"/>
+      <c r="D22" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E22" s="18"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
@@ -2653,7 +2712,7 @@
       <c r="C40" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="30" t="s">
         <v>60</v>
       </c>
       <c r="E40" s="29" t="s">
@@ -2669,7 +2728,7 @@
       <c r="C41" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="46" t="s">
+      <c r="D41" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E41" s="29" t="s">

--- a/lesson01/作业.xlsx
+++ b/lesson01/作业.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>学员基本信息</t>
   </si>
@@ -508,6 +508,118 @@
     </rPh>
     <rPh sb="24" eb="25">
       <t>tao'lun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘法口诀表可不是正方形的哈</t>
+    <rPh sb="0" eb="1">
+      <t>cehng'fa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kou'jue'b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ke'bu'shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zheng'fang'x</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ha</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同学，作业文件名字尽量不要加空格好吧</t>
+    <rPh sb="0" eb="1">
+      <t>tong'xue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zuo'ye</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wen'j</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ming'z</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jin'liang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bu'yao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>kong'ge</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>hao'ba</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用try对异常做处理，同学，是谁让你的代码那么骚气</t>
+    <rPh sb="0" eb="1">
+      <t>shi'yong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi'chang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chu'li</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>tong'xue</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi'shei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>rang</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ni'de</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>dai'ma</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>na'me</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>sao'qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有一个作业呢同学？</t>
+    <rPh sb="0" eb="1">
+      <t>hai'you</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zuo'ye</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ne</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tong'xue</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2141,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="109" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="109" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2508,7 +2620,9 @@
       <c r="C23" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="13"/>
+      <c r="D23" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E23" s="18"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -2520,7 +2634,9 @@
       <c r="C24" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="13"/>
+      <c r="D24" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E24" s="18"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -2532,8 +2648,12 @@
       <c r="C25" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="18"/>
+      <c r="D25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
@@ -2544,8 +2664,12 @@
       <c r="C26" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="18"/>
+      <c r="D26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -2556,7 +2680,9 @@
       <c r="C27" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E27" s="18"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -2568,7 +2694,9 @@
       <c r="C28" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="13"/>
+      <c r="D28" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E28" s="18"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -2580,8 +2708,12 @@
       <c r="C29" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="18"/>
+      <c r="D29" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
@@ -2592,8 +2724,12 @@
       <c r="C30" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="18"/>
+      <c r="D30" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
@@ -2604,7 +2740,9 @@
       <c r="C31" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E31" s="18"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>

--- a/lesson01/作业.xlsx
+++ b/lesson01/作业.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
   <si>
     <t>学员基本信息</t>
   </si>
@@ -422,10 +422,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>A+</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>运用两种循环方式实现,所学的也都用到了</t>
     <rPh sb="0" eb="1">
       <t>yun'yong</t>
@@ -620,6 +616,44 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>tong'xue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老同学，可以啊！</t>
+    <rPh sb="0" eb="1">
+      <t>lao'tong'xue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>a</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘法表还的空格还需要优化下呀</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'fa'b</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hai'xu'y</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kong'ge</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hai'xut'yao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>you'hua'xia</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ya</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -922,7 +956,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -988,9 +1022,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2251,10 +2282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2271,22 +2302,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -2301,13 +2332,13 @@
       <c r="D2" s="12">
         <v>43597</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="13"/>
       <c r="C3" s="14" t="s">
         <v>15</v>
@@ -2321,13 +2352,13 @@
       <c r="F3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="35"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="37"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
         <v>41</v>
@@ -2339,13 +2370,13 @@
       <c r="F4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="35"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="37"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
         <v>42</v>
@@ -2357,13 +2388,13 @@
       <c r="F5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="35"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="37"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
         <v>23</v>
@@ -2375,13 +2406,13 @@
       <c r="F6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="35"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="38"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
         <v>26</v>
@@ -2427,21 +2458,21 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="28"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
         <v>38</v>
@@ -2455,7 +2486,7 @@
       <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="28"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
         <v>44</v>
@@ -2469,7 +2500,7 @@
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="28"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14" t="s">
         <v>7</v>
@@ -2483,7 +2514,7 @@
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="28"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14" t="s">
         <v>18</v>
@@ -2497,7 +2528,7 @@
       <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="28"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
         <v>19</v>
@@ -2511,7 +2542,7 @@
       <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="28"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14" t="s">
         <v>21</v>
@@ -2527,7 +2558,7 @@
       <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14" t="s">
         <v>24</v>
@@ -2543,7 +2574,7 @@
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="28"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14" t="s">
         <v>27</v>
@@ -2557,7 +2588,7 @@
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="28"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14" t="s">
         <v>29</v>
@@ -2571,7 +2602,7 @@
       <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="28"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14" t="s">
         <v>31</v>
@@ -2580,14 +2611,14 @@
         <v>13</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14" t="s">
         <v>32</v>
@@ -2601,7 +2632,7 @@
       <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="13"/>
       <c r="C22" s="14" t="s">
         <v>36</v>
@@ -2615,7 +2646,7 @@
       <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14" t="s">
         <v>39</v>
@@ -2629,7 +2660,7 @@
       <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="28"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14" t="s">
         <v>10</v>
@@ -2643,7 +2674,7 @@
       <c r="H24" s="21"/>
     </row>
     <row r="25" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="28"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14" t="s">
         <v>45</v>
@@ -2652,14 +2683,14 @@
         <v>13</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="28"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14" t="s">
         <v>46</v>
@@ -2668,14 +2699,14 @@
         <v>11</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="28"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14" t="s">
         <v>47</v>
@@ -2689,7 +2720,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="28"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14" t="s">
         <v>48</v>
@@ -2703,7 +2734,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="28"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14" t="s">
         <v>49</v>
@@ -2712,14 +2743,14 @@
         <v>8</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="28"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14" t="s">
         <v>50</v>
@@ -2728,14 +2759,14 @@
         <v>13</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="28"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14" t="s">
         <v>33</v>
@@ -2749,166 +2780,180 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="28"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="13"/>
+      <c r="D32" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E32" s="18"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="28"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="13"/>
+      <c r="D33" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E33" s="18"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="28"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="13"/>
+      <c r="D34" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E34" s="18"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="28"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="18"/>
+      <c r="D35" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="28"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="13"/>
+      <c r="D36" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E36" s="18"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="28"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="13"/>
+      <c r="D37" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E37" s="18"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="28"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="13"/>
+      <c r="D38" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E38" s="18"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
+      <c r="D39" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
     </row>
     <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
     </row>
     <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
     </row>
     <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
+      <c r="D42" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
     </row>
     <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-    </row>
-    <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
+      <c r="D43" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="8">
